--- a/DataEnvelopmentAnalysisOneInputAndTwoOutput.xlsx
+++ b/DataEnvelopmentAnalysisOneInputAndTwoOutput.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Lp1" sheetId="1" r:id="rId1"/>
@@ -185,7 +185,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="27">
   <si>
     <t xml:space="preserve">Input </t>
   </si>
@@ -230,6 +230,42 @@
   </si>
   <si>
     <t>&lt;=</t>
+  </si>
+  <si>
+    <t>y12</t>
+  </si>
+  <si>
+    <t>y22</t>
+  </si>
+  <si>
+    <t>y13</t>
+  </si>
+  <si>
+    <t>y23</t>
+  </si>
+  <si>
+    <t>y14</t>
+  </si>
+  <si>
+    <t>y24</t>
+  </si>
+  <si>
+    <t>y15</t>
+  </si>
+  <si>
+    <t>y25</t>
+  </si>
+  <si>
+    <t>x12</t>
+  </si>
+  <si>
+    <t>x13</t>
+  </si>
+  <si>
+    <t>x14</t>
+  </si>
+  <si>
+    <t>x15</t>
   </si>
 </sst>
 </file>
@@ -573,7 +609,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -786,7 +822,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="A1:XFD1048576"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -830,13 +866,13 @@
         <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="J4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="K4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
@@ -998,7 +1034,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="A1:XFD1048576"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1042,13 +1078,13 @@
         <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="J4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="K4" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
@@ -1210,7 +1246,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1254,13 +1290,13 @@
         <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="J4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="K4" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
@@ -1421,8 +1457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1466,13 +1502,13 @@
         <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="J4" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="K4" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">

--- a/DataEnvelopmentAnalysisOneInputAndTwoOutput.xlsx
+++ b/DataEnvelopmentAnalysisOneInputAndTwoOutput.xlsx
@@ -4,188 +4,190 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Lp1" sheetId="1" r:id="rId1"/>
-    <sheet name="LP2" sheetId="2" r:id="rId2"/>
-    <sheet name="LP3" sheetId="3" r:id="rId3"/>
-    <sheet name="LP4" sheetId="4" r:id="rId4"/>
-    <sheet name="LP5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sensitivity Report 1" sheetId="6" r:id="rId1"/>
+    <sheet name="Lp1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sensitivity Report 2" sheetId="7" r:id="rId3"/>
+    <sheet name="LP2" sheetId="2" r:id="rId4"/>
+    <sheet name="LP3" sheetId="3" r:id="rId5"/>
+    <sheet name="LP4" sheetId="4" r:id="rId6"/>
+    <sheet name="LP5" sheetId="5" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="0" hidden="1">'Lp1'!$I$6:$K$6</definedName>
-    <definedName name="solver_adj" localSheetId="1" hidden="1">'LP2'!$I$6:$K$6</definedName>
-    <definedName name="solver_adj" localSheetId="2" hidden="1">'LP3'!$I$6:$K$6</definedName>
-    <definedName name="solver_adj" localSheetId="3" hidden="1">'LP4'!$I$6:$K$6</definedName>
-    <definedName name="solver_adj" localSheetId="4" hidden="1">'LP5'!$I$6:$K$6</definedName>
-    <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
+    <definedName name="solver_adj" localSheetId="1" hidden="1">'Lp1'!$I$6:$K$6</definedName>
+    <definedName name="solver_adj" localSheetId="3" hidden="1">'LP2'!$I$6:$K$6</definedName>
+    <definedName name="solver_adj" localSheetId="4" hidden="1">'LP3'!$I$6:$K$6</definedName>
+    <definedName name="solver_adj" localSheetId="5" hidden="1">'LP4'!$I$6:$K$6</definedName>
+    <definedName name="solver_adj" localSheetId="6" hidden="1">'LP5'!$I$6:$K$6</definedName>
     <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
-    <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="3" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="4" hidden="1">0.0001</definedName>
-    <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_cvg" localSheetId="5" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="6" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_drv" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="4" hidden="1">1</definedName>
-    <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_drv" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_eng" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="4" hidden="1">2</definedName>
-    <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="6" hidden="1">2</definedName>
     <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_est" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="4" hidden="1">1</definedName>
-    <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_est" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="4" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="0" hidden="1">'Lp1'!$I$10</definedName>
-    <definedName name="solver_lhs1" localSheetId="1" hidden="1">'LP2'!$I$10</definedName>
-    <definedName name="solver_lhs1" localSheetId="2" hidden="1">'LP3'!$I$10</definedName>
-    <definedName name="solver_lhs1" localSheetId="3" hidden="1">'LP4'!$I$10</definedName>
-    <definedName name="solver_lhs1" localSheetId="4" hidden="1">'LP5'!$I$10</definedName>
-    <definedName name="solver_lhs2" localSheetId="0" hidden="1">'Lp1'!$I$12:$I$16</definedName>
-    <definedName name="solver_lhs2" localSheetId="1" hidden="1">'LP2'!$I$12:$I$16</definedName>
-    <definedName name="solver_lhs2" localSheetId="2" hidden="1">'LP3'!$I$12:$I$16</definedName>
-    <definedName name="solver_lhs2" localSheetId="3" hidden="1">'LP4'!$I$12:$I$16</definedName>
-    <definedName name="solver_lhs2" localSheetId="4" hidden="1">'LP5'!$I$12:$I$16</definedName>
-    <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="5" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="6" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="1" hidden="1">'Lp1'!$I$10</definedName>
+    <definedName name="solver_lhs1" localSheetId="3" hidden="1">'LP2'!$I$10</definedName>
+    <definedName name="solver_lhs1" localSheetId="4" hidden="1">'LP3'!$I$10</definedName>
+    <definedName name="solver_lhs1" localSheetId="5" hidden="1">'LP4'!$I$10</definedName>
+    <definedName name="solver_lhs1" localSheetId="6" hidden="1">'LP5'!$I$10</definedName>
+    <definedName name="solver_lhs2" localSheetId="1" hidden="1">'Lp1'!$I$12:$I$16</definedName>
+    <definedName name="solver_lhs2" localSheetId="3" hidden="1">'LP2'!$I$12:$I$16</definedName>
+    <definedName name="solver_lhs2" localSheetId="4" hidden="1">'LP3'!$I$12:$I$16</definedName>
+    <definedName name="solver_lhs2" localSheetId="5" hidden="1">'LP4'!$I$12:$I$16</definedName>
+    <definedName name="solver_lhs2" localSheetId="6" hidden="1">'LP5'!$I$12:$I$16</definedName>
     <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="4" hidden="1">2147483647</definedName>
-    <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
+    <definedName name="solver_mip" localSheetId="5" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="6" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
-    <definedName name="solver_mni" localSheetId="2" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="3" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="4" hidden="1">30</definedName>
-    <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
+    <definedName name="solver_mni" localSheetId="5" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="6" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
-    <definedName name="solver_mrt" localSheetId="2" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="3" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="4" hidden="1">0.075</definedName>
-    <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_mrt" localSheetId="5" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="6" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_msl" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="4" hidden="1">2</definedName>
-    <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_msl" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="6" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_neg" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="4" hidden="1">1</definedName>
-    <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_neg" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="4" hidden="1">2147483647</definedName>
-    <definedName name="solver_num" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_nod" localSheetId="5" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="6" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_num" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_num" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_num" localSheetId="4" hidden="1">2</definedName>
-    <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_num" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_num" localSheetId="6" hidden="1">2</definedName>
     <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="4" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="0" hidden="1">'Lp1'!$K$7</definedName>
-    <definedName name="solver_opt" localSheetId="1" hidden="1">'LP2'!$K$7</definedName>
-    <definedName name="solver_opt" localSheetId="2" hidden="1">'LP3'!$K$7</definedName>
-    <definedName name="solver_opt" localSheetId="3" hidden="1">'LP4'!$K$7</definedName>
-    <definedName name="solver_opt" localSheetId="4" hidden="1">'LP5'!$K$7</definedName>
-    <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
+    <definedName name="solver_nwt" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">'Lp1'!$K$7</definedName>
+    <definedName name="solver_opt" localSheetId="3" hidden="1">'LP2'!$K$7</definedName>
+    <definedName name="solver_opt" localSheetId="4" hidden="1">'LP3'!$K$7</definedName>
+    <definedName name="solver_opt" localSheetId="5" hidden="1">'LP4'!$K$7</definedName>
+    <definedName name="solver_opt" localSheetId="6" hidden="1">'LP5'!$K$7</definedName>
     <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
-    <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="3" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="4" hidden="1">0.000001</definedName>
-    <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_pre" localSheetId="5" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="6" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rbv" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="4" hidden="1">1</definedName>
-    <definedName name="solver_rel1" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rbv" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_rel1" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_rel1" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_rel1" localSheetId="4" hidden="1">2</definedName>
-    <definedName name="solver_rel2" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_rel1" localSheetId="6" hidden="1">2</definedName>
     <definedName name="solver_rel2" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rel2" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="4" hidden="1">1</definedName>
-    <definedName name="solver_rhs1" localSheetId="0" hidden="1">'Lp1'!$K$10</definedName>
-    <definedName name="solver_rhs1" localSheetId="1" hidden="1">'LP2'!$K$10</definedName>
-    <definedName name="solver_rhs1" localSheetId="2" hidden="1">'LP3'!$K$10</definedName>
-    <definedName name="solver_rhs1" localSheetId="3" hidden="1">'LP4'!$K$10</definedName>
-    <definedName name="solver_rhs1" localSheetId="4" hidden="1">'LP5'!$K$10</definedName>
-    <definedName name="solver_rhs2" localSheetId="0" hidden="1">'Lp1'!$K$12:$K$16</definedName>
-    <definedName name="solver_rhs2" localSheetId="1" hidden="1">'LP2'!$K$12:$K$16</definedName>
-    <definedName name="solver_rhs2" localSheetId="2" hidden="1">'LP3'!$K$12:$K$16</definedName>
-    <definedName name="solver_rhs2" localSheetId="3" hidden="1">'LP4'!$K$12:$K$16</definedName>
-    <definedName name="solver_rhs2" localSheetId="4" hidden="1">'LP5'!$K$12:$K$16</definedName>
-    <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rel2" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_rhs1" localSheetId="1" hidden="1">'Lp1'!$K$10</definedName>
+    <definedName name="solver_rhs1" localSheetId="3" hidden="1">'LP2'!$K$10</definedName>
+    <definedName name="solver_rhs1" localSheetId="4" hidden="1">'LP3'!$K$10</definedName>
+    <definedName name="solver_rhs1" localSheetId="5" hidden="1">'LP4'!$K$10</definedName>
+    <definedName name="solver_rhs1" localSheetId="6" hidden="1">'LP5'!$K$10</definedName>
+    <definedName name="solver_rhs2" localSheetId="1" hidden="1">'Lp1'!$K$12:$K$16</definedName>
+    <definedName name="solver_rhs2" localSheetId="3" hidden="1">'LP2'!$K$12:$K$16</definedName>
+    <definedName name="solver_rhs2" localSheetId="4" hidden="1">'LP3'!$K$12:$K$16</definedName>
+    <definedName name="solver_rhs2" localSheetId="5" hidden="1">'LP4'!$K$12:$K$16</definedName>
+    <definedName name="solver_rhs2" localSheetId="6" hidden="1">'LP5'!$K$12:$K$16</definedName>
     <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="4" hidden="1">2</definedName>
-    <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rlx" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="6" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
-    <definedName name="solver_rsd" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="4" hidden="1">0</definedName>
-    <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rsd" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_scl" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="4" hidden="1">1</definedName>
-    <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_scl" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="4" hidden="1">2</definedName>
-    <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
+    <definedName name="solver_sho" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="6" hidden="1">2</definedName>
     <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
-    <definedName name="solver_ssz" localSheetId="2" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="3" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="4" hidden="1">100</definedName>
-    <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_ssz" localSheetId="5" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="6" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_tim" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="4" hidden="1">2147483647</definedName>
-    <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
+    <definedName name="solver_tim" localSheetId="5" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="6" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
-    <definedName name="solver_tol" localSheetId="2" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="3" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="4" hidden="1">0.01</definedName>
-    <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_tol" localSheetId="5" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="6" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_typ" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="4" hidden="1">1</definedName>
-    <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_typ" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
-    <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="4" hidden="1">0</definedName>
-    <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_val" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
-    <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="3" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="4" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="5" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="6" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="61">
   <si>
     <t xml:space="preserve">Input </t>
   </si>
@@ -266,13 +268,115 @@
   </si>
   <si>
     <t>x15</t>
+  </si>
+  <si>
+    <t>Microsoft Excel 15.0 Sensitivity Report</t>
+  </si>
+  <si>
+    <t>Worksheet: [DataEnvelopmentAnalysisOneInputAndTwoOutput.xlsx]Lp1</t>
+  </si>
+  <si>
+    <t>Report Created: 28-04-2024 00:38:18</t>
+  </si>
+  <si>
+    <t>Variable Cells</t>
+  </si>
+  <si>
+    <t>Cell</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Final</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Reduced</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Objective</t>
+  </si>
+  <si>
+    <t>Coefficient</t>
+  </si>
+  <si>
+    <t>Allowable</t>
+  </si>
+  <si>
+    <t>Increase</t>
+  </si>
+  <si>
+    <t>Decrease</t>
+  </si>
+  <si>
+    <t>Constraints</t>
+  </si>
+  <si>
+    <t>Shadow</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Constraint</t>
+  </si>
+  <si>
+    <t>R.H. Side</t>
+  </si>
+  <si>
+    <t>$I$6</t>
+  </si>
+  <si>
+    <t>$J$6</t>
+  </si>
+  <si>
+    <t>$K$6</t>
+  </si>
+  <si>
+    <t>$I$10</t>
+  </si>
+  <si>
+    <t>$I$12</t>
+  </si>
+  <si>
+    <t>$I$13</t>
+  </si>
+  <si>
+    <t>$I$14</t>
+  </si>
+  <si>
+    <t>$I$15</t>
+  </si>
+  <si>
+    <t>$I$16</t>
+  </si>
+  <si>
+    <t>Worksheet: [DataEnvelopmentAnalysisOneInputAndTwoOutput.xlsx]LP2</t>
+  </si>
+  <si>
+    <t>Report Created: 28-04-2024 00:38:28</t>
+  </si>
+  <si>
+    <t>Ref</t>
+  </si>
+  <si>
+    <t>4 and 5</t>
+  </si>
+  <si>
+    <t>3 and 5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -280,16 +384,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="18"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -297,12 +423,60 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="23"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -607,10 +781,357 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:J21"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="2.1796875" customWidth="1"/>
+    <col min="2" max="2" width="5.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="2">
+        <v>5.0000000000000004E-6</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1E+30</v>
+      </c>
+      <c r="H9" s="2">
+        <v>1E+30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="2">
+        <v>9.7656250000000018E-8</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1110000</v>
+      </c>
+      <c r="G10" s="2">
+        <v>690000.00000000012</v>
+      </c>
+      <c r="H10" s="2">
+        <v>311739.13043478271</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="3">
+        <v>3.8281250000000003E-2</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3">
+        <v>15</v>
+      </c>
+      <c r="G11" s="3">
+        <v>5.8578431372549042</v>
+      </c>
+      <c r="H11" s="3">
+        <v>5.7500000000000009</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0.6826171875</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1</v>
+      </c>
+      <c r="G16" s="2">
+        <v>1E+30</v>
+      </c>
+      <c r="H16" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.6826171875</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0</v>
+      </c>
+      <c r="G17" s="2">
+        <v>1E+30</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0.3173828125</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.5537109375</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0</v>
+      </c>
+      <c r="G18" s="2">
+        <v>1E+30</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0.44628906249999994</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0.79628906250000009</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0</v>
+      </c>
+      <c r="G19" s="2">
+        <v>1E+30</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0.20371093749999997</v>
+      </c>
+      <c r="J19">
+        <f>E20/E16</f>
+        <v>0.65808297567954233</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B20" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0.44921875000000006</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0.15567164179104476</v>
+      </c>
+      <c r="J20">
+        <f>E21/E16</f>
+        <v>0.34191702432045779</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="3">
+        <v>1</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0.2333984375</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
+        <v>9.678018001299063E-2</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0.13043478260869573</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -621,7 +1142,7 @@
     <col min="9" max="9" width="16.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -631,8 +1152,14 @@
       <c r="C1">
         <v>200000</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -643,7 +1170,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>1</v>
       </c>
@@ -663,7 +1190,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B5">
         <v>2</v>
       </c>
@@ -683,7 +1210,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B6">
         <v>3</v>
       </c>
@@ -703,7 +1230,7 @@
         <v>3.8281250000000003E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B7">
         <v>4</v>
       </c>
@@ -724,7 +1251,7 @@
         <v>0.6826171875</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>5</v>
       </c>
@@ -735,7 +1262,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="I10">
         <f>C1*I6</f>
         <v>1</v>
@@ -747,7 +1274,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H12">
+        <v>1</v>
+      </c>
       <c r="I12">
         <f>SUMPRODUCT($J$6:$K$6,C4:D4)</f>
         <v>0.6826171875</v>
@@ -760,7 +1290,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H13">
+        <v>2</v>
+      </c>
       <c r="I13">
         <f t="shared" ref="I13:I16" si="0">SUMPRODUCT($J$6:$K$6,C5:D5)</f>
         <v>0.5537109375</v>
@@ -773,7 +1306,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H14">
+        <v>3</v>
+      </c>
       <c r="I14">
         <f t="shared" si="0"/>
         <v>0.79628906250000009</v>
@@ -786,7 +1322,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H15" s="6">
+        <v>4</v>
+      </c>
       <c r="I15">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -799,7 +1338,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H16" s="6">
+        <v>5</v>
+      </c>
       <c r="I16">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -817,7 +1359,587 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J21"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="2.1796875" customWidth="1"/>
+    <col min="2" max="2" width="5.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="2">
+        <v>5.0000000000000004E-6</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1E+30</v>
+      </c>
+      <c r="H9" s="2">
+        <v>1E+30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1.990049751243781E-7</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1750000</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1125000</v>
+      </c>
+      <c r="H10" s="2">
+        <v>550000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="3">
+        <v>2.6119402985074629E-2</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3">
+        <v>10</v>
+      </c>
+      <c r="G11" s="3">
+        <v>4.583333333333333</v>
+      </c>
+      <c r="H11" s="3">
+        <v>3.9130434782608701</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0.60945273631840802</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1</v>
+      </c>
+      <c r="G16" s="2">
+        <v>1E+30</v>
+      </c>
+      <c r="H16" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.61268656716417913</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0</v>
+      </c>
+      <c r="G17" s="2">
+        <v>1E+30</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0.38731343283582093</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.60945273631840791</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0</v>
+      </c>
+      <c r="G18" s="2">
+        <v>1E+30</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0.39054726368159198</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0.27363184079601988</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0.43750000000000006</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0.20371093749999997</v>
+      </c>
+      <c r="J19">
+        <f>E19/E16</f>
+        <v>0.44897959183673464</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B20" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0.84432835820895524</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0</v>
+      </c>
+      <c r="G20" s="2">
+        <v>1E+30</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0.15567164179104476</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="3">
+        <v>1</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0.33582089552238809</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
+        <v>9.678018001299063E-2</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0.30434782608695654</v>
+      </c>
+      <c r="J21">
+        <f>E21/E16</f>
+        <v>0.55102040816326525</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>200000</v>
+      </c>
+      <c r="L1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1110000</v>
+      </c>
+      <c r="D4">
+        <v>15</v>
+      </c>
+      <c r="I4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>1750000</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="I5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>3450000</v>
+      </c>
+      <c r="D6">
+        <v>12</v>
+      </c>
+      <c r="I6">
+        <v>5.0000000000000004E-6</v>
+      </c>
+      <c r="J6">
+        <v>1.990049751243781E-7</v>
+      </c>
+      <c r="K6">
+        <v>2.6119402985074629E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>1224000</v>
+      </c>
+      <c r="D7">
+        <v>23</v>
+      </c>
+      <c r="I7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7">
+        <f>SUMPRODUCT(J6:K6,C5:D5)</f>
+        <v>0.60945273631840791</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>2400000</v>
+      </c>
+      <c r="D8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="I10">
+        <f>C1*I6</f>
+        <v>1</v>
+      </c>
+      <c r="J10" t="s">
+        <v>13</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <f>SUMPRODUCT($J$6:$K$6,C4:D4)</f>
+        <v>0.61268656716417913</v>
+      </c>
+      <c r="J12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K12">
+        <f>$C$1*$I$6</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13">
+        <f t="shared" ref="I13:I16" si="0">SUMPRODUCT($J$6:$K$6,C5:D5)</f>
+        <v>0.60945273631840791</v>
+      </c>
+      <c r="J13" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13">
+        <f t="shared" ref="K13:K16" si="1">$C$1*$I$6</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H14" s="6">
+        <v>3</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J14" t="s">
+        <v>14</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H15">
+        <v>4</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>0.84432835820895524</v>
+      </c>
+      <c r="J15" t="s">
+        <v>14</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H16" s="6">
+        <v>5</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K16"/>
   <sheetViews>
@@ -866,13 +1988,13 @@
         <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
@@ -909,10 +2031,10 @@
         <v>5.0000000000000004E-6</v>
       </c>
       <c r="J6">
-        <v>1.990049751243781E-7</v>
+        <v>2.8985507246376811E-7</v>
       </c>
       <c r="K6">
-        <v>2.6119402985074629E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
@@ -932,8 +2054,8 @@
         <v>12</v>
       </c>
       <c r="K7">
-        <f>SUMPRODUCT(J6:K6,C5:D5)</f>
-        <v>0.60945273631840791</v>
+        <f>SUMPRODUCT(J6:K6,C6:D6)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
@@ -962,7 +2084,7 @@
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="I12">
         <f>SUMPRODUCT($J$6:$K$6,C4:D4)</f>
-        <v>0.61268656716417913</v>
+        <v>0.32173913043478258</v>
       </c>
       <c r="J12" t="s">
         <v>14</v>
@@ -975,7 +2097,7 @@
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="I13">
         <f t="shared" ref="I13:I16" si="0">SUMPRODUCT($J$6:$K$6,C5:D5)</f>
-        <v>0.60945273631840791</v>
+        <v>0.50724637681159424</v>
       </c>
       <c r="J13" t="s">
         <v>14</v>
@@ -1001,7 +2123,7 @@
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="I15">
         <f t="shared" si="0"/>
-        <v>0.84432835820895524</v>
+        <v>0.35478260869565215</v>
       </c>
       <c r="J15" t="s">
         <v>14</v>
@@ -1014,7 +2136,7 @@
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="I16">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.69565217391304346</v>
       </c>
       <c r="J16" t="s">
         <v>14</v>
@@ -1029,7 +2151,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K16"/>
   <sheetViews>
@@ -1078,13 +2200,13 @@
         <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
@@ -1121,10 +2243,10 @@
         <v>5.0000000000000004E-6</v>
       </c>
       <c r="J6">
-        <v>2.8985507246376811E-7</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>4.3478260869565216E-2</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
@@ -1144,7 +2266,7 @@
         <v>12</v>
       </c>
       <c r="K7">
-        <f>SUMPRODUCT(J6:K6,C6:D6)</f>
+        <f>SUMPRODUCT(J6:K6,C7:D7)</f>
         <v>1</v>
       </c>
     </row>
@@ -1174,7 +2296,7 @@
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="I12">
         <f>SUMPRODUCT($J$6:$K$6,C4:D4)</f>
-        <v>0.32173913043478258</v>
+        <v>0.65217391304347827</v>
       </c>
       <c r="J12" t="s">
         <v>14</v>
@@ -1187,7 +2309,7 @@
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="I13">
         <f t="shared" ref="I13:I16" si="0">SUMPRODUCT($J$6:$K$6,C5:D5)</f>
-        <v>0.50724637681159424</v>
+        <v>0.43478260869565216</v>
       </c>
       <c r="J13" t="s">
         <v>14</v>
@@ -1200,7 +2322,7 @@
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="I14">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.52173913043478259</v>
       </c>
       <c r="J14" t="s">
         <v>14</v>
@@ -1213,7 +2335,7 @@
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="I15">
         <f t="shared" si="0"/>
-        <v>0.35478260869565215</v>
+        <v>1</v>
       </c>
       <c r="J15" t="s">
         <v>14</v>
@@ -1226,7 +2348,7 @@
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="I16">
         <f t="shared" si="0"/>
-        <v>0.69565217391304346</v>
+        <v>0.86956521739130432</v>
       </c>
       <c r="J16" t="s">
         <v>14</v>
@@ -1241,12 +2363,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1290,218 +2412,6 @@
         <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>1750000</v>
-      </c>
-      <c r="D5">
-        <v>10</v>
-      </c>
-      <c r="I5" t="s">
-        <v>5</v>
-      </c>
-      <c r="J5" t="s">
-        <v>6</v>
-      </c>
-      <c r="K5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6">
-        <v>3450000</v>
-      </c>
-      <c r="D6">
-        <v>12</v>
-      </c>
-      <c r="I6">
-        <v>5.0000000000000004E-6</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>4.3478260869565216E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7">
-        <v>1224000</v>
-      </c>
-      <c r="D7">
-        <v>23</v>
-      </c>
-      <c r="I7" t="s">
-        <v>11</v>
-      </c>
-      <c r="J7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K7">
-        <f>SUMPRODUCT(J6:K6,C7:D7)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B8">
-        <v>5</v>
-      </c>
-      <c r="C8">
-        <v>2400000</v>
-      </c>
-      <c r="D8">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="I10">
-        <f>C1*I6</f>
-        <v>1</v>
-      </c>
-      <c r="J10" t="s">
-        <v>13</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="I12">
-        <f>SUMPRODUCT($J$6:$K$6,C4:D4)</f>
-        <v>0.65217391304347827</v>
-      </c>
-      <c r="J12" t="s">
-        <v>14</v>
-      </c>
-      <c r="K12">
-        <f>$C$1*$I$6</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="I13">
-        <f t="shared" ref="I13:I16" si="0">SUMPRODUCT($J$6:$K$6,C5:D5)</f>
-        <v>0.43478260869565216</v>
-      </c>
-      <c r="J13" t="s">
-        <v>14</v>
-      </c>
-      <c r="K13">
-        <f t="shared" ref="K13:K16" si="1">$C$1*$I$6</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="I14">
-        <f t="shared" si="0"/>
-        <v>0.52173913043478259</v>
-      </c>
-      <c r="J14" t="s">
-        <v>14</v>
-      </c>
-      <c r="K14">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="I15">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J15" t="s">
-        <v>14</v>
-      </c>
-      <c r="K15">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="I16">
-        <f t="shared" si="0"/>
-        <v>0.86956521739130432</v>
-      </c>
-      <c r="J16" t="s">
-        <v>14</v>
-      </c>
-      <c r="K16">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K16"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.26953125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>1110000</v>
-      </c>
-      <c r="D4">
-        <v>15</v>
-      </c>
-      <c r="I4" t="s">
         <v>26</v>
       </c>
       <c r="J4" t="s">
